--- a/Data/EC/NIT-9015735781.xlsx
+++ b/Data/EC/NIT-9015735781.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{057B8013-4A48-45E0-A7D8-35676EA3606D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4BBD65-3C52-4386-8CE0-FA709EBDC6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7B4DC46-BEDD-4BE0-96F5-D93B40FFC5BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20093A03-AE83-477A-B9EE-47BB4CD5F175}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,40 +71,49 @@
     <t>JOHN JAIRO TEJERA MENDOZA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>2209</t>
   </si>
   <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1143384728</t>
+  </si>
+  <si>
+    <t>WILLIAM JOSE PACHECO CASTANO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF85802-3A21-43DA-73C9-AF72677ABB4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A5DC2F-9B5E-2993-E174-E553CAE4C7BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DEB686-A64B-48AA-8BA1-477190F8B0BD}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A39084-0929-4972-B7D0-5838C0B6D926}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -881,7 +890,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -894,7 +903,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -939,7 +948,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -971,12 +980,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>553600</v>
+        <v>681600</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -987,17 +996,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1024,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1047,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25600</v>
+        <v>48000</v>
       </c>
       <c r="G16" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1073,7 +1082,7 @@
         <v>48000</v>
       </c>
       <c r="G17" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1096,7 +1105,7 @@
         <v>48000</v>
       </c>
       <c r="G18" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1119,7 +1128,7 @@
         <v>48000</v>
       </c>
       <c r="G19" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1142,7 +1151,7 @@
         <v>48000</v>
       </c>
       <c r="G20" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1165,7 +1174,7 @@
         <v>48000</v>
       </c>
       <c r="G21" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1188,7 +1197,7 @@
         <v>48000</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1211,7 +1220,7 @@
         <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1234,7 +1243,7 @@
         <v>48000</v>
       </c>
       <c r="G24" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1257,7 +1266,7 @@
         <v>48000</v>
       </c>
       <c r="G25" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1280,63 +1289,109 @@
         <v>48000</v>
       </c>
       <c r="G26" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="18">
         <v>48000</v>
       </c>
-      <c r="G27" s="24">
-        <v>1200000</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="G27" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="18">
+        <v>25600</v>
+      </c>
+      <c r="G28" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="24">
+        <v>80000</v>
+      </c>
+      <c r="G29" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9015735781.xlsx
+++ b/Data/EC/NIT-9015735781.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4BBD65-3C52-4386-8CE0-FA709EBDC6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D1118C-EFD3-4C3B-9444-92247C724A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20093A03-AE83-477A-B9EE-47BB4CD5F175}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3A1575D-4099-4B7D-8F23-ED3C52F422F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,49 +71,46 @@
     <t>JOHN JAIRO TEJERA MENDOZA</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>1143384728</t>
-  </si>
-  <si>
-    <t>WILLIAM JOSE PACHECO CASTANO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -212,7 +209,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +424,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +468,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A5DC2F-9B5E-2993-E174-E553CAE4C7BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0C6EF2-AF9C-90AE-650D-5E44A8124A5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A39084-0929-4972-B7D0-5838C0B6D926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6B9047-DC3A-4942-AC6D-263F29800BEE}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -890,7 +887,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -903,7 +900,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -948,7 +945,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -980,12 +977,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>681600</v>
+        <v>649600</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -996,17 +993,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1033,13 +1030,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1056,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>48000</v>
+        <v>25600</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1082,7 +1079,7 @@
         <v>48000</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1105,7 +1102,7 @@
         <v>48000</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1128,7 +1125,7 @@
         <v>48000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1151,7 +1148,7 @@
         <v>48000</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1174,7 +1171,7 @@
         <v>48000</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1197,7 +1194,7 @@
         <v>48000</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1220,7 +1217,7 @@
         <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1243,7 +1240,7 @@
         <v>48000</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1266,7 +1263,7 @@
         <v>48000</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1289,7 +1286,7 @@
         <v>48000</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1312,7 +1309,7 @@
         <v>48000</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1332,10 +1329,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>25600</v>
+        <v>48000</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1346,19 +1343,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>13</v>
-      </c>
       <c r="F29" s="24">
-        <v>80000</v>
+        <v>48000</v>
       </c>
       <c r="G29" s="24">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
@@ -1366,22 +1363,22 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="32"/>
       <c r="H34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="32"/>
       <c r="H35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>

--- a/Data/EC/NIT-9015735781.xlsx
+++ b/Data/EC/NIT-9015735781.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D1118C-EFD3-4C3B-9444-92247C724A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AABA399-9028-4EC3-A2B2-808AC17CC8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3A1575D-4099-4B7D-8F23-ED3C52F422F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{944B3C12-DFDF-4AE0-A6EE-FE064496E06E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -209,9 +212,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -224,7 +225,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,29 +421,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,19 +462,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0C6EF2-AF9C-90AE-650D-5E44A8124A5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB9DAA5-88C4-B419-6008-C4F30095F2C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,8 +884,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6B9047-DC3A-4942-AC6D-263F29800BEE}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1F6C0C-D194-4B4C-B950-4FCF71C3F3A7}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -898,57 +907,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -964,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9015735781</v>
       </c>
@@ -977,12 +986,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>649600</v>
+        <v>697600</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,17 +1002,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1030,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1049,18 +1058,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>25600</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1200000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1072,18 +1081,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>48000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1200000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1095,18 +1104,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>48000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1200000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1118,18 +1127,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>48000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1200000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1141,18 +1150,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>48000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1200000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1164,18 +1173,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>48000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1200000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1187,18 +1196,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>48000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1200000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1210,18 +1219,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>48000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1200000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1233,18 +1242,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>48000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1200000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1256,18 +1265,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>48000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1200000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1279,18 +1288,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>48000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1200000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1302,18 +1311,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>48000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1200000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1325,70 +1334,93 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>48000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1200000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="19">
         <v>48000</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="19">
         <v>1200000</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="26">
+        <v>48000</v>
+      </c>
+      <c r="G30" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="32"/>
+      <c r="B35" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="H36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
